--- a/TraceabilityMatrix.xlsx
+++ b/TraceabilityMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Fabio\Documents\Polito\Software Engineering\Project\EzWh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969C7FAD-50E5-4380-9849-F4FBDB9A4E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB03875-F853-4D85-B1C9-8B212B4417A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="8100" xr2:uid="{80723916-DD60-4B65-A331-69E56BD6B192}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="143">
   <si>
     <t>FR1</t>
   </si>
@@ -437,6 +437,33 @@
   </si>
   <si>
     <t>IssueRestockOrder</t>
+  </si>
+  <si>
+    <t>CommitReturnOrder</t>
+  </si>
+  <si>
+    <t>ReturnOrder</t>
+  </si>
+  <si>
+    <t>createNewInternalOrders</t>
+  </si>
+  <si>
+    <t>deleteInternalOrders</t>
+  </si>
+  <si>
+    <t>modifyInternalOrders</t>
+  </si>
+  <si>
+    <t>IssueInternalOrder</t>
+  </si>
+  <si>
+    <t>DropPoint</t>
+  </si>
+  <si>
+    <t>ModifyDropPointOfInternalOrder</t>
+  </si>
+  <si>
+    <t>DeleteItemFromInternalOrder</t>
   </si>
 </sst>
 </file>
@@ -805,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587820B-A026-4E1A-BA20-2653106DB9B3}">
-  <dimension ref="A1:BC80"/>
+  <dimension ref="A1:BC89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB77" sqref="AB77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB82" sqref="BB82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1157,9 @@
       <c r="AJ14" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="BB14" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1141,6 +1171,9 @@
       <c r="AJ15" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="BB15" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1159,7 +1192,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -1192,8 +1225,11 @@
       <c r="AM18" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="BB18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>130</v>
       </c>
@@ -1207,7 +1243,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
@@ -1224,7 +1260,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -1237,8 +1273,11 @@
       <c r="AJ21" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="BB21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -1249,7 +1288,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
@@ -1260,7 +1299,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -1274,7 +1313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -1288,7 +1327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
@@ -1302,7 +1341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
@@ -1310,7 +1349,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
@@ -1318,7 +1357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
@@ -1332,7 +1371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -1343,7 +1382,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -1354,7 +1393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
@@ -1556,7 +1595,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
@@ -1570,7 +1609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>99</v>
       </c>
@@ -1578,7 +1617,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>131</v>
       </c>
@@ -1588,8 +1627,11 @@
       <c r="AF51" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AO51" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
@@ -1600,7 +1642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>132</v>
       </c>
@@ -1614,7 +1656,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>133</v>
       </c>
@@ -1625,7 +1667,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>101</v>
       </c>
@@ -1636,7 +1678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>102</v>
       </c>
@@ -1644,358 +1686,604 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AB57" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AO57" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AB58" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AO58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP59" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AB59" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="AB60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ60" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AB60" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="AB61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ61" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV62" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="AR63" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="AR64" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="AR65" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="AR66" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY67" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW68" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX69" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA70" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ71" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="BC72" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="BC73" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="BC74" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="AR76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB76" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM70" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="H77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT77" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AB71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM71" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="AB78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC78" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM72" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="M79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO79" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="M80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB74" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="M81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB81" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE75" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="M82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB82" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE76" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="AB83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO83" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB77" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="B84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB78" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="AB85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC85" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AB79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ79" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="AB86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ86" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>127</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ88" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR89" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/TraceabilityMatrix.xlsx
+++ b/TraceabilityMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Fabio\Documents\Polito\Software Engineering\Project\EzWh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB03875-F853-4D85-B1C9-8B212B4417A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6789CEA-3B95-4FCE-8DFD-6EA683CA3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="8100" xr2:uid="{80723916-DD60-4B65-A331-69E56BD6B192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80723916-DD60-4B65-A331-69E56BD6B192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="142">
   <si>
     <t>FR1</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>createNewItem</t>
-  </si>
-  <si>
-    <t>API Methods</t>
   </si>
   <si>
     <t>Classes</t>
@@ -832,11 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587820B-A026-4E1A-BA20-2653106DB9B3}">
-  <dimension ref="A1:BC89"/>
+  <dimension ref="A1:BC162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB82" sqref="BB82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,1277 +1010,1683 @@
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB15" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB18" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB21" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO51" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI52" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE53" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ55" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO57" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ58" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP59" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ60" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ61" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV62" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR63" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR64" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR65" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR66" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY67" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW68" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX69" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA70" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ71" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC72" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC74" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="AR74" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AY76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BA76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BC78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BC85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ86" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR89" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ98" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ99" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ100" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM101" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB102" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB103" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ104" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB106" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB109" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL117" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ118" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ119" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA120" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X131" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y132" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB133" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB134" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB135" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB136" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB137" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG137" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB138" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB139" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF139" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO139" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI140" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB141" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD141" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE141" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB142" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH142" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB143" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ143" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB144" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB145" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO145" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ146" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB147" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP147" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB148" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN148" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO148" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ148" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB149" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ149" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR150" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS150" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV150" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR151" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR152" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR153" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR154" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR155" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT155" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU155" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV155" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX155" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY155" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR156" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW156" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR157" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV157" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX157" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR158" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA158" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AR89" s="1" t="s">
-        <v>128</v>
+      <c r="AR159" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ159" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC160" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC161" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC162" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
